--- a/biology/Médecine/Édith_Côté/Édith_Côté.xlsx
+++ b/biology/Médecine/Édith_Côté/Édith_Côté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89dith_C%C3%B4t%C3%A9</t>
+          <t>Édith_Côté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édith Côté est une infirmière et professeure québécoise née en 1947 et morte le 7 mars 2013[1]. Elle est l'une des premières infirmières à obtenir un baccalauréat en sciences infirmières de l'Université Laval.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édith Côté est une infirmière et professeure québécoise née en 1947 et morte le 7 mars 2013. Elle est l'une des premières infirmières à obtenir un baccalauréat en sciences infirmières de l'Université Laval.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89dith_C%C3%B4t%C3%A9</t>
+          <t>Édith_Côté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2007 - Professeure émérite de l'Université Laval[2]
-2008 - Insigne du mérite de l'Ordre des infirmières et infirmiers du Québec[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2007 - Professeure émérite de l'Université Laval
+2008 - Insigne du mérite de l'Ordre des infirmières et infirmiers du Québec</t>
         </is>
       </c>
     </row>
